--- a/output/p-values.xlsx
+++ b/output/p-values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BB244-92F8-4D59-94C1-0D3449D7204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1F7D8-51C2-465E-ADFC-F927283C2E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2265" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="2610" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relationship" sheetId="4" r:id="rId1"/>
@@ -192,7 +192,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -225,11 +225,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,13 +515,13 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1038,13 +1038,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71425310-D91A-4C57-978E-296A02B3D9C6}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -3005,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344BB574-A985-470C-8778-D619CEEEB140}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
